--- a/doc/ue_net.xlsx
+++ b/doc/ue_net.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB550B90-D822-4E26-AFC7-A67CBECC20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC7E9D-D665-497A-BCE0-044547A97E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="异常判断" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>FSocket*</t>
   </si>
@@ -186,6 +187,41 @@
   </si>
   <si>
     <t>UDP接口比较简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生的SOCKET没有很好的异常判断：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ的时候有错误码判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND的时候没有？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以单独exception error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码的判断：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISocketSubsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual ESocketErrors GetLastErrorCode() = 0;</t>
+  </si>
+  <si>
+    <t>virtual ESocketErrors GetLastErrorCode() = 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些可以自己判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,6 +309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -555,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -813,4 +850,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB8CA2F-B6F8-4395-B4A5-E63581038BD2}">
+  <dimension ref="B6:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_net.xlsx
+++ b/doc/ue_net.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC7E9D-D665-497A-BCE0-044547A97E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89958E8-52C0-43A1-AD9B-97E9E59170B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="异常判断" sheetId="2" r:id="rId2"/>
+    <sheet name="支持平台系统定义" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>FSocket*</t>
   </si>
@@ -222,6 +223,64 @@
   </si>
   <si>
     <t>这些可以自己判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREEBSD系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类Linux系统（linux,Android）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认就有这个定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认也有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#define EWOULDBLOCK     EAGAIN          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/* Operation would block */</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys/sys/errno.h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件内定义</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +327,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,13 +378,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,7 +727,7 @@
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -666,7 +741,7 @@
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -775,7 +850,7 @@
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -789,7 +864,7 @@
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
@@ -856,14 +931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB8CA2F-B6F8-4395-B4A5-E63581038BD2}">
   <dimension ref="B6:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -883,7 +958,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -893,7 +968,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -905,6 +980,71 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D803891-E1D8-4CBF-9F78-117ABB36C273}">
+  <dimension ref="C10:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_net.xlsx
+++ b/doc/ue_net.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89958E8-52C0-43A1-AD9B-97E9E59170B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1ECA1-588A-4169-8817-0BB9C260BD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="异常判断" sheetId="2" r:id="rId2"/>
     <sheet name="支持平台系统定义" sheetId="3" r:id="rId3"/>
+    <sheet name="FSocket派生类" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>FSocket*</t>
   </si>
@@ -281,6 +282,51 @@
       </rPr>
       <t>文件内定义</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSocketBSD</t>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSteamSocket</t>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本所有平台都兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://partner.steamgames.com/doc/features/multiplayer/networking</t>
+  </si>
+  <si>
+    <t>具体的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个其实和SOCKET完全没关系，仅仅是为了兼容，就把他进行了封装而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全没必要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,6 +430,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -993,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D803891-E1D8-4CBF-9F78-117ABB36C273}">
   <dimension ref="C10:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,4 +1102,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CB1151-34CE-4F30-82AC-729752D0BF06}">
+  <dimension ref="B7:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="13.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_net.xlsx
+++ b/doc/ue_net.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1ECA1-588A-4169-8817-0BB9C260BD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDB655-E320-49C8-887D-630CE64B8699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>FSocket*</t>
   </si>
@@ -289,44 +289,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://partner.steamgames.com/doc/features/multiplayer/networking</t>
+  </si>
+  <si>
+    <t>FSteamSocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了兼容stream协议，有需要沿用SOCKET统一接口，强行封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部不是直接用SOCKET，而是封装streamAPI的handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FSocketBSD</t>
-  </si>
-  <si>
-    <t>派生类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSteamSocket</t>
-  </si>
-  <si>
-    <t>Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本所有平台都兼容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://partner.steamgames.com/doc/features/multiplayer/networking</t>
-  </si>
-  <si>
-    <t>具体的文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个其实和SOCKET完全没关系，仅仅是为了兼容，就把他进行了封装而已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全没必要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络通讯类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSocketBSDIOS</t>
+  </si>
+  <si>
+    <t>FSocketMac</t>
+  </si>
+  <si>
+    <t>FSocketUnix</t>
+  </si>
+  <si>
+    <t>针对UDP实现了特别接口，TCP无变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个平台自我API接口实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对UDP的两个特殊实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSocketWindows</t>
+  </si>
+  <si>
+    <t>UE54.27之后新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有平台基类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,15 +439,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +791,7 @@
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -791,7 +805,7 @@
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -900,7 +914,7 @@
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -914,7 +928,7 @@
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
@@ -1106,74 +1120,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CB1151-34CE-4F30-82AC-729752D0BF06}">
-  <dimension ref="B7:E17"/>
+  <dimension ref="B7:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="6"/>
     <col min="3" max="3" width="13.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>63</v>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>72</v>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_net.xlsx
+++ b/doc/ue_net.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDB655-E320-49C8-887D-630CE64B8699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="异常判断" sheetId="2" r:id="rId2"/>
     <sheet name="支持平台系统定义" sheetId="3" r:id="rId3"/>
     <sheet name="FSocket派生类" sheetId="4" r:id="rId4"/>
+    <sheet name="FTcpMessageTransportConnection" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>FSocket*</t>
   </si>
@@ -336,19 +337,110 @@
     <t>FSocketWindows</t>
   </si>
   <si>
-    <t>UE54.27之后新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有平台基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4.27之后新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTcpMessageTransportConnection::Start里面开线程，运行自己的逻辑循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTcpMessageTransportConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FScopeLock SendLock(&amp;SendCriticalSection);</t>
+  </si>
+  <si>
+    <t>在自己线程里面接收消息，当收到第一个合法包头的时候，设置自己的状态为Connected，这个时候也加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己线程里面接收到完整消息包之后，放入到线程安全的Queue里面Inbox.Enqueue(MakeShareable(DeserializedMessage));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在其他线程发送，内部加锁，但是有异常时调用Send的线程还不能处理，必须在FTcpMessageTransportConnection自己线程检测到异常在处理（关闭的时候有加锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部调用处理消息包：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直调用Receive，从上面Inbox一个一个的取包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批判一下这个类的实现，及其复杂难懂，完全是按照同步的方式在写SOCKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有收到第一个有效包头之后状态才是STATE_Connected，才允许发包，不够发不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息包处理:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能说是一种古老的per thread per connect处理方式，锁用到的莫名其妙，没必要学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似阻塞的一直发送！！！（因为不缓存，就一直死循环发送，即使遇到worldblock也是继续死循环发，会卡发送线程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用SendCriticalSection锁，在发送和异常处理的时候处处加锁（批判一下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部单开线程，运行自己逻辑，per thread per connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有收到第一个有效包头之后状态才变为STATE_Connected，才允许发包，否则发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在其他线程发送，内部加锁，发送异常时调用Send的线程也不能处理，必须在FTcpMessageTransportConnection自己线程检测到异常在处理（关闭的时候有加锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己线程里面接收消息，当收到第一个合法包头的时候，设置自己的状态为Connected，设置时需加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部线程调用Receive，从上面Inbox一个一个的取包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己线程里面接收到完整消息包之后，放入到线程安全的Queue里面（Inbox）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +495,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,14 +539,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:E48"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -791,7 +895,7 @@
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -805,7 +909,7 @@
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -914,7 +1018,7 @@
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -928,7 +1032,7 @@
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
@@ -992,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB8CA2F-B6F8-4395-B4A5-E63581038BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1054,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D803891-E1D8-4CBF-9F78-117ABB36C273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C10:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1119,11 +1223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CB1151-34CE-4F30-82AC-729752D0BF06}">
-  <dimension ref="B7:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1142,16 +1246,24 @@
         <v>67</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s">
-        <v>76</v>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E10" t="s">
@@ -1179,27 +1291,250 @@
         <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="9" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="9" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="10"/>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="10"/>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
